--- a/Data_frame/balancos_definitivos/BPAT33.xlsx
+++ b/Data_frame/balancos_definitivos/BPAT33.xlsx
@@ -6202,96 +6202,36 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6300,96 +6240,36 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6398,96 +6278,36 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6496,96 +6316,36 @@
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6594,96 +6354,36 @@
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6692,96 +6392,36 @@
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6790,96 +6430,36 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6888,96 +6468,36 @@
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6986,96 +6506,36 @@
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7084,96 +6544,36 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7182,96 +6582,36 @@
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7280,96 +6620,36 @@
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7378,96 +6658,36 @@
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7476,96 +6696,36 @@
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7574,96 +6734,36 @@
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7672,96 +6772,36 @@
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7770,96 +6810,36 @@
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7868,96 +6848,36 @@
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7966,96 +6886,36 @@
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8064,96 +6924,36 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8162,96 +6962,36 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8260,96 +7000,36 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
